--- a/Copy of 7am_data_analysis_with_python.xlsx
+++ b/Copy of 7am_data_analysis_with_python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\iCode\data-anlytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172089FC-3966-4935-B9DD-B0F5E50D2441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF02B9-DC78-4D3A-9734-98438221247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="338">
   <si>
     <t>Date</t>
   </si>
@@ -35,25 +35,6 @@
     <t>Facebook Link</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">🔗 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="18"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Youtube Playlist</t>
-    </r>
-  </si>
-  <si>
     <t>Data Analysis Intro</t>
   </si>
   <si>
@@ -687,12 +668,6 @@
     <t>https://web.facebook.com/iCodeguru/videos/1137022110642862</t>
   </si>
   <si>
-    <t>https://www.facebook.com/iCodeguru/videos/456473543445962</t>
-  </si>
-  <si>
-    <t>https://fb.watch/rVNI28UUkC/</t>
-  </si>
-  <si>
     <t>9pm-pkt-machine-learning-operations-for-faang-interviews (archived)</t>
   </si>
   <si>
@@ -730,6 +705,336 @@
   </si>
   <si>
     <t>https://www.facebook.com/iCodeguru/videos/797777002113266</t>
+  </si>
+  <si>
+    <t>Workshop &lt;Mastering Debugging: Learn How to Fix Common Code Errors&gt;</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/3683153308609259</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1113048776649107</t>
+  </si>
+  <si>
+    <t>Webinar on "7000 $ International Scholarship for Women in Technology" by Ayesha Arif, Ayesha Andleeb</t>
+  </si>
+  <si>
+    <t>Guidance on Letters of Recommendation - 5pm Career Services Session</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1552825502287065</t>
+  </si>
+  <si>
+    <t>How to prepare for Scholarships Opportunities || Workshop || 4/7/2024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/961562818928727</t>
+  </si>
+  <si>
+    <t>WEEKLY WORKSHOP | Gemini Ultra Hackathon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/736877725099683</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/378260254975089</t>
+  </si>
+  <si>
+    <t>Unleash Your Potential: A Deep Derive into Google Summer of Code 2024 || Workshop |</t>
+  </si>
+  <si>
+    <t>Webinar on "Diving into Blockchain and Open Source Innovatio…</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/952281109905217</t>
+  </si>
+  <si>
+    <t>Unleash Your Potential: A Deep Derive into Google Summer o</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/249369591582780</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>GENARATIVE AI</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>WEEK2</t>
+  </si>
+  <si>
+    <t>7PM Generative AI || Week 2 || Day 4(Last Class)</t>
+  </si>
+  <si>
+    <t>7PM Generative AI || Week 2 || Day 1(Last Class)</t>
+  </si>
+  <si>
+    <t>7PM Generative AI || Week 2 || Day 2(Last Class)</t>
+  </si>
+  <si>
+    <t>7PM Generative AI || Week 2 || Day 3(Last Class)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/3814497708837902</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/381208798098170</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/773841147989772</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/live/?v=966566751554721</t>
+  </si>
+  <si>
+    <t>Beginners guide to Hackathon-Gemini AI Hackathon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/365016519695585</t>
+  </si>
+  <si>
+    <t>5PM Deep Learning with Keras||Week 5||Day 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1506288156595094</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/live/?v=292148287230902</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/901050985056232</t>
+  </si>
+  <si>
+    <t>Learn AI from Beginning | Week 13 | Lecture 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/742634991301468</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1134428921035695/</t>
+  </si>
+  <si>
+    <t>WEEK5 DAY 2</t>
+  </si>
+  <si>
+    <t>WEEK 5 DAY 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/391302436965778/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/433132885800084/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/2680202735463689/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/3686890331638835/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/7119994124715206/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK 4 </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/339071392466774/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/411578291240210/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1580190369488265/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/770739931609200/</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1041160690308037/</t>
+  </si>
+  <si>
+    <t>week 12 d1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/922475162669567/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1572313646880681/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.facebook.com/iCodeguru/videos/2079319062431182/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/246715981742794/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/708471584776885/</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/355382960731482/</t>
+  </si>
+  <si>
+    <t>week 11 d2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/955635599319424/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1525041895002074/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1169933934383347/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/2374025372787420/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1490661258184306/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/2813257342157878/</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>week 10 day2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1625825241574262/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/716092273969434/</t>
+  </si>
+  <si>
+    <t>day 1</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>week 08  dat 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/351152344491639/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/400043595837211/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1542704793227461/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/778599404087522/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/921079022890677/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/918417686107106/</t>
+  </si>
+  <si>
+    <t>week 09 day1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1553664902055971/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/235394646283819/</t>
+  </si>
+  <si>
+    <t>week 07 day 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1084014452789756/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/3607534109495655/</t>
+  </si>
+  <si>
+    <t>week 06 d1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/714825570405406/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/7663838570310331/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data sceiene  change world </t>
+  </si>
+  <si>
+    <t>eek 05 fay 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/838245574741667/</t>
+  </si>
+  <si>
+    <t>week 04 day 2</t>
+  </si>
+  <si>
+    <t>imagtion generaton</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1901102743662078/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week  3 day2 </t>
+  </si>
+  <si>
+    <t>week 2 day2</t>
+  </si>
+  <si>
+    <t>week1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/348987614549546/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpt 4                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.facebook.com/iCodeguru/videos/414112340948629/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/306547788432342/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/1040926463844693/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/742789204379409/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/326690243644276/</t>
+  </si>
+  <si>
+    <t>5PM Deep Learning with Keras||   workshop                    https://www.facebook.com/iCodeguru/videos/877814053785227/</t>
+  </si>
+  <si>
+    <t>googlr inter</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/725474275753056/https://www.facebook.com/iCodeguru/videos/725474275753056/</t>
+  </si>
+  <si>
+    <t>g inrt</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iCodeguru/videos/725474275753056/</t>
   </si>
 </sst>
 </file>
@@ -755,12 +1060,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -790,17 +1089,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -838,6 +1126,27 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -886,37 +1195,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1137,10 +1447,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="65" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,10 +1460,12 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="7" max="7" width="78.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,159 +1480,203 @@
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G1" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="G4" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K4" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45293</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="G5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45294</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45295</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J8" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45296</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J9" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1328,10 +1684,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1339,128 +1697,167 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J11" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45299</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J12" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45300</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>282</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45301</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="13" t="s">
+        <v>281</v>
+      </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45302</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45303</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J17" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1470,150 +1867,198 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J18" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45306</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J20" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45307</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="13" t="s">
+        <v>292</v>
+      </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="J21" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45308</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>314</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45309</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>302</v>
+      </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45310</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1621,397 +2066,428 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>320</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="K28" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="13" t="s">
+        <v>306</v>
+      </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="J33" t="s">
+        <v>324</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>45317</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>45320</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>78</v>
-      </c>
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>45325</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>45327</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45331</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2029,21 +2505,11 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>45334</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2051,19 +2517,19 @@
     </row>
     <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2072,19 +2538,19 @@
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2093,19 +2559,19 @@
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2114,19 +2580,19 @@
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2134,11 +2600,21 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2156,21 +2632,11 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>45341</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2178,19 +2644,19 @@
     </row>
     <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2199,54 +2665,54 @@
     </row>
     <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>45343</v>
+        <v>45342</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="2"/>
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>45343</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>45344</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>136</v>
-      </c>
+    <row r="61" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2254,19 +2720,19 @@
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2274,11 +2740,21 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2296,21 +2772,11 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>45348</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2318,19 +2784,19 @@
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>45349</v>
+        <v>45348</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2339,19 +2805,19 @@
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
-        <v>45350</v>
+        <v>45349</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2360,19 +2826,19 @@
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2381,19 +2847,19 @@
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2401,11 +2867,21 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2423,55 +2899,45 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>45355</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="2"/>
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>45355</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>45356</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>160</v>
-      </c>
+    <row r="74" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2479,19 +2945,19 @@
     </row>
     <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2500,19 +2966,19 @@
     </row>
     <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
-        <v>45358</v>
+        <v>45357</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2521,19 +2987,19 @@
     </row>
     <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
-        <v>45359</v>
+        <v>45358</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2541,11 +3007,21 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2563,21 +3039,11 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>45362</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2585,54 +3051,54 @@
     </row>
     <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E82" s="2"/>
+    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>45364</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>179</v>
-      </c>
+    <row r="83" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2640,19 +3106,19 @@
     </row>
     <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -2661,19 +3127,19 @@
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -2681,11 +3147,21 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="5">
+        <v>45366</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2703,21 +3179,11 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>45369</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2725,19 +3191,19 @@
     </row>
     <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2746,19 +3212,19 @@
     </row>
     <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -2767,19 +3233,19 @@
     </row>
     <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -2788,19 +3254,19 @@
     </row>
     <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -2808,11 +3274,21 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -2830,21 +3306,11 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
-        <v>45376</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -2852,19 +3318,19 @@
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -2873,19 +3339,19 @@
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -2894,19 +3360,19 @@
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -2915,19 +3381,19 @@
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>214</v>
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -2935,11 +3401,21 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="5">
+        <v>45380</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -2956,65 +3432,285 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="14" t="s">
+    <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E102" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E112" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E114" s="13" t="s">
-        <v>224</v>
+    </row>
+    <row r="113" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
         <v>228</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>234</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>334</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D136" t="s">
+        <v>336</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>247</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>251</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>248</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3022,88 +3718,146 @@
     <mergeCell ref="G1:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E53" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E58" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E59" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E62" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E65" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E66" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E67" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E68" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E69" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E72" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E74" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E75" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E76" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E77" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E81" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E83" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E84" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E85" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E88" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E89" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E90" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E91" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E92" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E96" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E97" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E98" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E99" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G4" r:id="rId68" xr:uid="{A3D114F1-1F75-4940-8548-40B0567880F7}"/>
-    <hyperlink ref="G5" r:id="rId69" xr:uid="{38BABA90-2510-4CF5-9EC0-66A75609456B}"/>
-    <hyperlink ref="D103" r:id="rId70" xr:uid="{D73EFBCB-7774-4B54-85B7-0A99B2535D00}"/>
-    <hyperlink ref="E102" r:id="rId71" xr:uid="{796B68DB-F476-490D-AAA2-877CECDFFE66}"/>
-    <hyperlink ref="E106" r:id="rId72" xr:uid="{BD4D4743-EBD3-414B-96C1-33199C8450F7}"/>
-    <hyperlink ref="E114" r:id="rId73" xr:uid="{CCFF8F6E-C016-4227-82B2-1B5F62056262}"/>
-    <hyperlink ref="E115" r:id="rId74" xr:uid="{82032140-7F09-4E87-8FB6-90F1EE72805C}"/>
-    <hyperlink ref="E116" r:id="rId75" xr:uid="{8463B426-B6B9-4196-BD7F-1B79D2477BE9}"/>
-    <hyperlink ref="E117" r:id="rId76" xr:uid="{50D50B07-5CC3-4E5E-A84A-45776089BE57}"/>
-    <hyperlink ref="E118" r:id="rId77" xr:uid="{D189D44F-A17F-4AA3-B999-2C11621AB4A3}"/>
-    <hyperlink ref="E112" r:id="rId78" xr:uid="{54B9482A-63F5-46E2-95FB-730D49186426}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E51" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E52" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E54" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E58" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E59" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E62" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E63" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E67" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E68" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E69" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E70" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E75" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E77" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E78" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E81" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E82" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E84" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E89" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E90" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E91" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E92" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E93" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E96" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E97" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E98" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E99" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E100" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D104" r:id="rId67" xr:uid="{D73EFBCB-7774-4B54-85B7-0A99B2535D00}"/>
+    <hyperlink ref="E103" r:id="rId68" xr:uid="{796B68DB-F476-490D-AAA2-877CECDFFE66}"/>
+    <hyperlink ref="E107" r:id="rId69" xr:uid="{BD4D4743-EBD3-414B-96C1-33199C8450F7}"/>
+    <hyperlink ref="E115" r:id="rId70" xr:uid="{CCFF8F6E-C016-4227-82B2-1B5F62056262}"/>
+    <hyperlink ref="E116" r:id="rId71" xr:uid="{82032140-7F09-4E87-8FB6-90F1EE72805C}"/>
+    <hyperlink ref="E117" r:id="rId72" xr:uid="{8463B426-B6B9-4196-BD7F-1B79D2477BE9}"/>
+    <hyperlink ref="E118" r:id="rId73" xr:uid="{50D50B07-5CC3-4E5E-A84A-45776089BE57}"/>
+    <hyperlink ref="E119" r:id="rId74" xr:uid="{D189D44F-A17F-4AA3-B999-2C11621AB4A3}"/>
+    <hyperlink ref="E113" r:id="rId75" xr:uid="{54B9482A-63F5-46E2-95FB-730D49186426}"/>
+    <hyperlink ref="E125" r:id="rId76" xr:uid="{9B0725A0-6DA6-4469-986F-E302398C4FF0}"/>
+    <hyperlink ref="E126" r:id="rId77" xr:uid="{006C8D6F-3639-4E42-8C71-6162DBA8BDD2}"/>
+    <hyperlink ref="E127" r:id="rId78" xr:uid="{F4E0A975-090F-4E65-9BC2-10888671146B}"/>
+    <hyperlink ref="E128" r:id="rId79" xr:uid="{9410F592-DC4F-43D2-AB00-5B8AD5EF5F4A}"/>
+    <hyperlink ref="E130" r:id="rId80" xr:uid="{ACDBE869-62B9-4A0F-80CF-B2F964987FC0}"/>
+    <hyperlink ref="E132" r:id="rId81" xr:uid="{683973B1-556A-4EF5-AA4D-185DE67375F0}"/>
+    <hyperlink ref="E133" r:id="rId82" xr:uid="{FD3FF7EC-1553-4EF1-9708-1BCD4F70D729}"/>
+    <hyperlink ref="E131" r:id="rId83" xr:uid="{C26AA835-0F32-4594-B242-7B59B377558E}"/>
+    <hyperlink ref="E148" r:id="rId84" xr:uid="{550AC531-2F88-4103-9239-2F0D802D09B9}"/>
+    <hyperlink ref="E147" r:id="rId85" xr:uid="{3F910FFC-E470-4295-9248-A3EB92C3FB75}"/>
+    <hyperlink ref="E146" r:id="rId86" xr:uid="{18170CC2-DEAD-4C23-B432-B61FF1B9199E}"/>
+    <hyperlink ref="E145" r:id="rId87" xr:uid="{0EBA7102-AC36-4377-8140-F6D4BA8E214E}"/>
+    <hyperlink ref="E129" r:id="rId88" xr:uid="{1EF09F04-AF3D-4CF0-BF1E-F9DC7D7D33AA}"/>
+    <hyperlink ref="H4" r:id="rId89" xr:uid="{427BF403-505C-4D83-ADD6-8071EDCC4CED}"/>
+    <hyperlink ref="H5" r:id="rId90" xr:uid="{6F9DE3FC-888A-46A0-B43C-E19C35A882ED}"/>
+    <hyperlink ref="H6" r:id="rId91" xr:uid="{34BFF334-BC52-453E-8235-F558A92DD231}"/>
+    <hyperlink ref="K3" r:id="rId92" xr:uid="{5AD1328D-18E9-4A73-9891-FD2BE6DBBA8D}"/>
+    <hyperlink ref="K4" r:id="rId93" xr:uid="{C48DC186-225D-4B6D-B543-311B8B6584DF}"/>
+    <hyperlink ref="H8" r:id="rId94" xr:uid="{C16E03A6-DD55-4D66-BE9A-0B76970F2FA2}"/>
+    <hyperlink ref="E143" r:id="rId95" xr:uid="{7066ACD2-9F15-43E1-830B-FDC9DB0663B5}"/>
+    <hyperlink ref="E142" r:id="rId96" xr:uid="{2FD84841-31DC-4E72-B512-3EF1F378046F}"/>
+    <hyperlink ref="E141" r:id="rId97" xr:uid="{A847A7E5-A047-4795-AF20-55920D157F41}"/>
+    <hyperlink ref="E140" r:id="rId98" xr:uid="{B9C76271-85A6-40E6-B1CD-A3EA5E22E7CE}"/>
+    <hyperlink ref="E139" r:id="rId99" xr:uid="{2DD4183D-EDC0-463F-B885-F9C38E524D96}"/>
+    <hyperlink ref="H9" r:id="rId100" xr:uid="{16864225-06C1-4DD8-A0F8-0A20C4FC79FE}"/>
+    <hyperlink ref="H10" r:id="rId101" xr:uid="{A06863E6-45E5-4120-9085-FB05339F2634}"/>
+    <hyperlink ref="H11" r:id="rId102" xr:uid="{D3CE01A8-79F1-4A12-81E1-136EBB29AB3F}"/>
+    <hyperlink ref="K6" r:id="rId103" xr:uid="{BF445EB6-C70B-4284-954D-65C91245A012}"/>
+    <hyperlink ref="H14" r:id="rId104" xr:uid="{EF0907F8-DD89-44DA-AD27-60B30CB81E9A}"/>
+    <hyperlink ref="H15" r:id="rId105" xr:uid="{51D32C10-EC85-44F9-AF4D-66010557790E}"/>
+    <hyperlink ref="H16" r:id="rId106" xr:uid="{DFD2E159-5C51-4C08-9CD0-43DB6BDAC699}"/>
+    <hyperlink ref="H17" r:id="rId107" xr:uid="{974CFD46-434B-47AC-8B30-195609D5DB95}"/>
+    <hyperlink ref="K8" r:id="rId108" xr:uid="{FEF91554-8F89-4180-B12C-468A07A1A233}"/>
+    <hyperlink ref="K9" r:id="rId109" xr:uid="{0922DE52-5631-442D-AEE4-7E2EBB68D402}"/>
+    <hyperlink ref="H19" r:id="rId110" xr:uid="{22B1868D-044B-4C79-8983-72715B0A8AB7}"/>
+    <hyperlink ref="H20" r:id="rId111" xr:uid="{514D41A1-8ABF-4C9C-9FA0-3A51E0FC2372}"/>
+    <hyperlink ref="H21" r:id="rId112" xr:uid="{E45BE00C-8958-496A-A67A-F63DDF766817}"/>
+    <hyperlink ref="H22" r:id="rId113" xr:uid="{644DFC63-C024-4A5E-B38E-5A7F63A6AC21}"/>
+    <hyperlink ref="H23" r:id="rId114" xr:uid="{51B6EC78-A0A7-4261-AF54-E5D57BA58297}"/>
+    <hyperlink ref="K11" r:id="rId115" xr:uid="{EBBB87A7-3713-4E09-90DC-F2C0EBE351DD}"/>
+    <hyperlink ref="K12" r:id="rId116" xr:uid="{9D3D1DF5-5A6D-4DFE-B65A-C70409C487CC}"/>
+    <hyperlink ref="H25" r:id="rId117" xr:uid="{5EE3CB86-2B97-4CAB-8F4E-3A9F1CC1928A}"/>
+    <hyperlink ref="H26" r:id="rId118" xr:uid="{FB6C94A9-BA2B-4CED-AAD0-FFCA332FD52C}"/>
+    <hyperlink ref="H27" r:id="rId119" xr:uid="{1FC2736C-6568-4D40-9A5A-AE85B06D43F5}"/>
+    <hyperlink ref="H28" r:id="rId120" xr:uid="{9C20316B-DD2D-41F7-9B94-9979AA50CF39}"/>
+    <hyperlink ref="H30" r:id="rId121" xr:uid="{9BCC177A-5222-4F97-869B-CBFBA011454E}"/>
+    <hyperlink ref="K14" r:id="rId122" xr:uid="{4D1A9605-FA93-4CD1-9540-46FCEA95B3C2}"/>
+    <hyperlink ref="K17" r:id="rId123" xr:uid="{7DC6546F-44B6-47D9-B087-1A25146CD583}"/>
+    <hyperlink ref="K18" r:id="rId124" xr:uid="{25B97FDF-A990-42F1-9971-71B915F80D51}"/>
+    <hyperlink ref="K20" r:id="rId125" xr:uid="{34B4B939-9868-44CB-A470-BEADA6AA3918}"/>
+    <hyperlink ref="K21" r:id="rId126" xr:uid="{40F959DA-34B7-40A5-A3A3-91BBA27AC66C}"/>
+    <hyperlink ref="K23" r:id="rId127" xr:uid="{4FC22FB3-EFE9-4E70-9F84-E20E2FAFC7FA}"/>
+    <hyperlink ref="E124" r:id="rId128" xr:uid="{65790A8A-F870-4D5B-92D0-6C97737BB837}"/>
+    <hyperlink ref="K25" r:id="rId129" xr:uid="{091DDA0E-0679-4BD3-8BB9-1BCF919E399D}"/>
+    <hyperlink ref="E123" r:id="rId130" xr:uid="{B10E4F2A-3699-4B19-968B-0E440AE058B5}"/>
+    <hyperlink ref="K27" r:id="rId131" xr:uid="{F2F2BB7E-D91D-49CC-929E-6D2B0B73360D}"/>
+    <hyperlink ref="K28" r:id="rId132" xr:uid="{97BF10B6-E03F-471B-A2A4-9475263C83EC}"/>
+    <hyperlink ref="K30" r:id="rId133" xr:uid="{B2140993-8ADA-4656-B19A-11EECC224A4F}"/>
+    <hyperlink ref="K33" r:id="rId134" xr:uid="{6D603869-5DC4-460D-B392-3852DEBCB48C}"/>
+    <hyperlink ref="E135" r:id="rId135" xr:uid="{D605E936-1A6A-4D79-961F-1AF2F764F021}"/>
+    <hyperlink ref="E136" r:id="rId136" xr:uid="{8694DA83-03FB-41FE-96A7-25004B507EB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId79"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId137"/>
 </worksheet>
 </file>
 

--- a/Copy of 7am_data_analysis_with_python.xlsx
+++ b/Copy of 7am_data_analysis_with_python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF02B9-DC78-4D3A-9734-98438221247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E49CF56-B55F-48C9-A8B2-E88A5A2023B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="337">
   <si>
     <t>Date</t>
   </si>
@@ -1026,9 +1026,6 @@
   </si>
   <si>
     <t>googlr inter</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/iCodeguru/videos/725474275753056/https://www.facebook.com/iCodeguru/videos/725474275753056/</t>
   </si>
   <si>
     <t>g inrt</t>
@@ -1449,8 +1446,8 @@
   </sheetPr>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3606,7 +3603,7 @@
       </c>
     </row>
     <row r="134" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E134" t="s">
+      <c r="E134" s="13" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3615,7 +3612,7 @@
         <v>334</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3623,11 +3620,9 @@
         <v>245</v>
       </c>
       <c r="D136" t="s">
-        <v>336</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>337</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
@@ -3853,7 +3848,7 @@
     <hyperlink ref="K30" r:id="rId133" xr:uid="{B2140993-8ADA-4656-B19A-11EECC224A4F}"/>
     <hyperlink ref="K33" r:id="rId134" xr:uid="{6D603869-5DC4-460D-B392-3852DEBCB48C}"/>
     <hyperlink ref="E135" r:id="rId135" xr:uid="{D605E936-1A6A-4D79-961F-1AF2F764F021}"/>
-    <hyperlink ref="E136" r:id="rId136" xr:uid="{8694DA83-03FB-41FE-96A7-25004B507EB2}"/>
+    <hyperlink ref="E134" r:id="rId136" xr:uid="{FB0284E9-A29F-4BB3-977C-BAE7CCADACE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
